--- a/data/meishan/fund_company_value.xlsx
+++ b/data/meishan/fund_company_value.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hongq\coding\data-analysis-with-python\data\meishan\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{83AE564D-AB0F-4C2B-8B8C-D2FBCF480CEA}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F37624D8-B172-49D0-9D69-36AA50FF6967}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13140" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="762" uniqueCount="442">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="762" uniqueCount="443">
   <si>
     <t>ts_code</t>
   </si>
@@ -1369,13 +1369,16 @@
   <si>
     <t>300796.SZ</t>
     <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>holder_name</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1387,6 +1390,7 @@
       <b/>
       <sz val="11"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
@@ -1395,6 +1399,12 @@
       <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
     </font>
   </fonts>
   <fills count="2">
@@ -1432,12 +1442,15 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -2245,7 +2258,7 @@
   <dimension ref="A1:I106"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J27" sqref="J27"/>
+      <selection activeCell="K16" sqref="K16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -2283,8 +2296,8 @@
       <c r="G1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="H1" s="1" t="s">
-        <v>8</v>
+      <c r="H1" s="3" t="s">
+        <v>442</v>
       </c>
       <c r="I1" t="s">
         <v>433</v>
